--- a/StructureDefinition-ext-R5-InsurancePlan.plan.xlsx
+++ b/StructureDefinition-ext-R5-InsurancePlan.plan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="313">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -480,7 +480,7 @@
     <t>Extension.extension:coverageArea.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
 </t>
   </si>
   <si>
@@ -518,7 +518,7 @@
     <t>Extension.extension:network.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -904,15 +904,6 @@
   </si>
   <si>
     <t>Extension.extension:specificCost.extension:benefit.extension:cost.extension:applicability.value[x]</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Whether the cost applies to in-network or out-of-network providers.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-insuranceplan-applicability-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:specificCost.extension:benefit.extension:cost.extension:qualifiers</t>
@@ -1355,8 +1346,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.9296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -9489,13 +9480,13 @@
         <v>77</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>77</v>
@@ -9533,13 +9524,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>249</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>77</v>
@@ -9564,14 +9555,14 @@
         <v>93</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -9640,7 +9631,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>265</v>
@@ -9743,7 +9734,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>267</v>
@@ -9848,7 +9839,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>269</v>
@@ -9891,7 +9882,7 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>77</v>
@@ -9953,7 +9944,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>272</v>
@@ -9982,10 +9973,10 @@
         <v>136</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10056,13 +10047,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>249</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>77</v>
@@ -10087,14 +10078,14 @@
         <v>93</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -10163,7 +10154,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>265</v>
@@ -10266,7 +10257,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>267</v>
@@ -10371,7 +10362,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>269</v>
@@ -10414,7 +10405,7 @@
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>77</v>
@@ -10476,7 +10467,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>272</v>
@@ -10502,13 +10493,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -10579,7 +10570,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>251</v>
@@ -10622,7 +10613,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>77</v>
@@ -10684,7 +10675,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>254</v>
@@ -10787,7 +10778,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>176</v>
@@ -10830,7 +10821,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -10892,7 +10883,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>179</v>
@@ -10995,7 +10986,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>113</v>
@@ -11038,7 +11029,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11100,7 +11091,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>122</v>
